--- a/ACSGMR/TestData/DnataStock_TestData.xlsx
+++ b/ACSGMR/TestData/DnataStock_TestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>Entity</t>
   </si>
@@ -86,19 +86,28 @@
     <t>ACSGMR_KLL</t>
   </si>
   <si>
+    <t>12345678</t>
+  </si>
+  <si>
     <t>ACS AIRLINE KALE</t>
   </si>
   <si>
     <t>ACSGMR_KAL0003</t>
   </si>
   <si>
-    <t>12345678</t>
-  </si>
-  <si>
     <t>ACS AADHYA</t>
   </si>
   <si>
     <t>ACSGMR_KIO</t>
+  </si>
+  <si>
+    <t>AWB No</t>
+  </si>
+  <si>
+    <t>65438951</t>
+  </si>
+  <si>
+    <t>Transaction Password</t>
   </si>
   <si>
     <t>Shipper</t>
@@ -241,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -288,44 +297,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,10 +334,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,53 +364,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,55 +425,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,127 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,23 +637,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,15 +678,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,30 +699,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -722,153 +707,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1218,7 +1227,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1226,7 +1235,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="26.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
@@ -1335,18 +1344,18 @@
         <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1357,7 +1366,23 @@
         <v>26</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1368,6 +1393,7 @@
     <hyperlink ref="C7" r:id="rId1" display="kale@123"/>
     <hyperlink ref="B7" r:id="rId2" display="DSAAgent@dispostable.com"/>
     <hyperlink ref="C8" r:id="rId3" display="Kale@123" tooltip="mailto:Kale@123"/>
+    <hyperlink ref="B13" r:id="rId3" display="Kale@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1397,54 +1423,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1473,36 +1499,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1511,20 +1537,20 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="6:6">
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="6:6">
       <c r="F4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1556,54 +1582,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/ACSGMR/TestData/DnataStock_TestData.xlsx
+++ b/ACSGMR/TestData/DnataStock_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -250,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -297,31 +297,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,6 +337,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -343,6 +360,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -350,67 +375,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,19 +425,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,61 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,97 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,11 +634,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +654,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,17 +712,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,177 +731,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -893,10 +893,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
@@ -905,58 +905,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>

--- a/ACSGMR/TestData/DnataStock_TestData.xlsx
+++ b/ACSGMR/TestData/DnataStock_TestData.xlsx
@@ -104,7 +104,7 @@
     <t>AWB No</t>
   </si>
   <si>
-    <t>65438951</t>
+    <t>67589045</t>
   </si>
   <si>
     <t>Transaction Password</t>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1366,7 +1366,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/ACSGMR/TestData/DnataStock_TestData.xlsx
+++ b/ACSGMR/TestData/DnataStock_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>AWB No</t>
   </si>
   <si>
-    <t>67589045</t>
+    <t>5463865</t>
   </si>
   <si>
     <t>Transaction Password</t>
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1318,7 +1318,7 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1366,7 +1366,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/ACSGMR/TestData/DnataStock_TestData.xlsx
+++ b/ACSGMR/TestData/DnataStock_TestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>Entity</t>
   </si>
@@ -86,7 +86,7 @@
     <t>ACSGMR_KLL</t>
   </si>
   <si>
-    <t>12345678</t>
+    <t>Kale@APR2425</t>
   </si>
   <si>
     <t>ACS AIRLINE KALE</t>
@@ -95,7 +95,7 @@
     <t>ACSGMR_KAL0003</t>
   </si>
   <si>
-    <t>ACS AADHYA</t>
+    <t xml:space="preserve"> AADHYA USER</t>
   </si>
   <si>
     <t>ACSGMR_KIO</t>
@@ -104,12 +104,18 @@
     <t>AWB No</t>
   </si>
   <si>
-    <t>5463865</t>
+    <t>98734226</t>
   </si>
   <si>
     <t>Transaction Password</t>
   </si>
   <si>
+    <t xml:space="preserve">ACS AADHYA </t>
+  </si>
+  <si>
+    <t>ACSGMR_ABT</t>
+  </si>
+  <si>
     <t>Shipper</t>
   </si>
   <si>
@@ -233,16 +239,16 @@
     <t>29052041</t>
   </si>
   <si>
-    <t>05062094</t>
-  </si>
-  <si>
-    <t>05062024</t>
-  </si>
-  <si>
-    <t>05062035</t>
-  </si>
-  <si>
-    <t>05062046</t>
+    <t>67895870</t>
+  </si>
+  <si>
+    <t>76543891</t>
+  </si>
+  <si>
+    <t>98567431</t>
+  </si>
+  <si>
+    <t>63786520</t>
   </si>
 </sst>
 </file>
@@ -1227,17 +1233,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="26.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="17.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="14.2857142857143" customWidth="1"/>
@@ -1385,6 +1391,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="kale@123"/>
@@ -1394,6 +1411,7 @@
     <hyperlink ref="B7" r:id="rId2" display="DSAAgent@dispostable.com"/>
     <hyperlink ref="C8" r:id="rId3" display="Kale@123" tooltip="mailto:Kale@123"/>
     <hyperlink ref="B13" r:id="rId3" display="Kale@123"/>
+    <hyperlink ref="C14" r:id="rId4" display="Kale@APR2425" tooltip="mailto:Kale@APR2425"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1423,54 +1441,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1499,36 +1517,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1537,20 +1555,20 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="6:6">
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="6:6">
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1583,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1582,54 +1600,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/ACSGMR/TestData/DnataStock_TestData.xlsx
+++ b/ACSGMR/TestData/DnataStock_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7650"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,20 @@
     <sheet name="ACSGMR_Export" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,7 +117,7 @@
     <t>AWB No</t>
   </si>
   <si>
-    <t>98734226</t>
+    <t>67465672</t>
   </si>
   <si>
     <t>Transaction Password</t>
@@ -254,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1236,7 +1249,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1388,7 +1401,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1410,7 +1423,7 @@
     <hyperlink ref="C7" r:id="rId1" display="kale@123"/>
     <hyperlink ref="B7" r:id="rId2" display="DSAAgent@dispostable.com"/>
     <hyperlink ref="C8" r:id="rId3" display="Kale@123" tooltip="mailto:Kale@123"/>
-    <hyperlink ref="B13" r:id="rId3" display="Kale@123"/>
+    <hyperlink ref="B13" r:id="rId4" display="Kale@APR2425" tooltip="mailto:Kale@APR2425"/>
     <hyperlink ref="C14" r:id="rId4" display="Kale@APR2425" tooltip="mailto:Kale@APR2425"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ACSGMR/TestData/DnataStock_TestData.xlsx
+++ b/ACSGMR/TestData/DnataStock_TestData.xlsx
@@ -117,7 +117,7 @@
     <t>AWB No</t>
   </si>
   <si>
-    <t>67465672</t>
+    <t>67543453</t>
   </si>
   <si>
     <t>Transaction Password</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>

--- a/ACSGMR/TestData/DnataStock_TestData.xlsx
+++ b/ACSGMR/TestData/DnataStock_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7650"/>
+    <workbookView windowWidth="19890" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,20 @@
     <sheet name="ACSGMR_Export" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -86,7 +99,7 @@
     <t>ACSGMR_KLL</t>
   </si>
   <si>
-    <t>Kale@APR2425</t>
+    <t>Kale@JUN2425</t>
   </si>
   <si>
     <t>ACS AIRLINE KALE</t>
@@ -254,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1236,7 +1249,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1349,7 +1362,7 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1360,7 +1373,7 @@
       <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1371,7 +1384,7 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1411,7 +1424,10 @@
     <hyperlink ref="B7" r:id="rId2" display="DSAAgent@dispostable.com"/>
     <hyperlink ref="C8" r:id="rId3" display="Kale@123" tooltip="mailto:Kale@123"/>
     <hyperlink ref="B13" r:id="rId3" display="Kale@123"/>
-    <hyperlink ref="C14" r:id="rId4" display="Kale@APR2425" tooltip="mailto:Kale@APR2425"/>
+    <hyperlink ref="C14" r:id="rId4" display="Kale@JUN2425" tooltip="mailto:Kale@JUN2425"/>
+    <hyperlink ref="C9" r:id="rId4" display="Kale@JUN2425"/>
+    <hyperlink ref="C10" r:id="rId4" display="Kale@JUN2425"/>
+    <hyperlink ref="C11" r:id="rId4" display="Kale@JUN2425"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
